--- a/RB3202S/hardware/gerber_file/BOM_RB3202S.xlsx
+++ b/RB3202S/hardware/gerber_file/BOM_RB3202S.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas_Vavrinec\Documents\GitHub\Jesper\RB3202\hardware\gerber_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas_Vavrinec\Documents\GitHub\Jesper\RB3202S\hardware\gerber_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07D882-05E2-48A3-8727-F630F314595A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD9132-98CB-48E6-AFE6-AB68819276CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{0C6DAACC-D0AB-418E-850A-5307B67BA29C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Comment</t>
   </si>
@@ -69,18 +69,9 @@
     <t>C6, C7</t>
   </si>
   <si>
-    <t>IC1,IC2</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
     <t>100nf</t>
   </si>
   <si>
-    <t>C1,C2,C10,C11,C16,C17</t>
-  </si>
-  <si>
     <t>10uf</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
     <t>2.2nf</t>
   </si>
   <si>
@@ -114,42 +99,24 @@
     <t>DO214BA</t>
   </si>
   <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>SML0603</t>
-  </si>
-  <si>
     <t>TL3342F160QG/TR</t>
   </si>
   <si>
-    <t>SW0-3,ON,BOOT</t>
-  </si>
-  <si>
     <t>C1525</t>
   </si>
   <si>
     <t>C89632</t>
   </si>
   <si>
-    <t>C28260</t>
-  </si>
-  <si>
     <t>C110482</t>
   </si>
   <si>
-    <t>Q1,Q3</t>
-  </si>
-  <si>
     <t>AO3401ASOP-8_EP_5.0X5.0X1.27P</t>
   </si>
   <si>
     <t>C180399</t>
   </si>
   <si>
-    <t>Q2,Q4,Q5,Q6,Q7</t>
-  </si>
-  <si>
     <t>SOT-23-3</t>
   </si>
   <si>
@@ -174,45 +141,21 @@
     <t>QFN-24_EP_4.0x4.0x0.5P</t>
   </si>
   <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>R1,R4</t>
-  </si>
-  <si>
-    <t>2M</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R2,R6-10,R12,R22,R23</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>30k</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>R13-19</t>
   </si>
   <si>
-    <t>R20-21</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>C26083</t>
   </si>
   <si>
@@ -234,24 +177,12 @@
     <t>C318887</t>
   </si>
   <si>
-    <t>LED0,LED4</t>
-  </si>
-  <si>
     <t>C2286</t>
   </si>
   <si>
-    <t>LED1,LED3</t>
-  </si>
-  <si>
     <t>C72043</t>
   </si>
   <si>
-    <t>C72041</t>
-  </si>
-  <si>
-    <t>C3,C4,C5,C8,C13,C14,C20,C21,C23</t>
-  </si>
-  <si>
     <t>220nf</t>
   </si>
   <si>
@@ -267,9 +198,6 @@
     <t>C19</t>
   </si>
   <si>
-    <t>C1744</t>
-  </si>
-  <si>
     <t>IC3</t>
   </si>
   <si>
@@ -277,6 +205,99 @@
   </si>
   <si>
     <t>C192585</t>
+  </si>
+  <si>
+    <t>MAX1</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9x1.27P</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>C25079</t>
+  </si>
+  <si>
+    <t>C15850</t>
+  </si>
+  <si>
+    <t>IC1, IC2</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C8, C13, C14, C20, C21, C23</t>
+  </si>
+  <si>
+    <t>C1, C2, C10, C11, C16, C17</t>
+  </si>
+  <si>
+    <t>C69, C70</t>
+  </si>
+  <si>
+    <t>LED0, LED4</t>
+  </si>
+  <si>
+    <t>SW0, SW1, SW2, SW3, ON, BOOT</t>
+  </si>
+  <si>
+    <t>Q1, Q3</t>
+  </si>
+  <si>
+    <t>Q2, Q4, Q5, Q6, Q7, Q10</t>
+  </si>
+  <si>
+    <t>R1, R4</t>
+  </si>
+  <si>
+    <t>R2, R6, R7, R8, R9, 10, R12, R22, R23, R51</t>
+  </si>
+  <si>
+    <t>R3, R52</t>
+  </si>
+  <si>
+    <t>R5, R49</t>
+  </si>
+  <si>
+    <t>R11, R50</t>
+  </si>
+  <si>
+    <t>R20, R21</t>
+  </si>
+  <si>
+    <t>0402_C</t>
+  </si>
+  <si>
+    <t>1206_C</t>
+  </si>
+  <si>
+    <t>0805_C</t>
+  </si>
+  <si>
+    <t>LED_0603</t>
+  </si>
+  <si>
+    <t>0402_R</t>
+  </si>
+  <si>
+    <t>C49217</t>
+  </si>
+  <si>
+    <t> C1779</t>
+  </si>
+  <si>
+    <t>LED2, LED3</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C72038</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t> C9945</t>
   </si>
 </sst>
 </file>
@@ -353,21 +374,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -682,380 +709,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542A8D27-F7C8-4BF3-B4D8-98A7544B414A}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="3" width="51.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="51.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>120</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>220</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>220</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1119,18 +1172,22 @@
     <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL31B106KBHNNNE_10uF-106-10-50V_C89632.html/?href=jlc-SMT" xr:uid="{DD5DB84B-3086-47CE-83B5-F35CFDAAB443}"/>
-    <hyperlink ref="D6" r:id="rId2" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2uF-225-20-50V_C49217.html/?href=jlc-SMT" xr:uid="{BD7A6199-0D60-4C1C-96C3-941DD1AA97CE}"/>
-    <hyperlink ref="D18" r:id="rId3" display="https://lcsc.com/product-detail/Motor-Drivers_TI_DRV8833PWP_DRV8833PWP_C50506.html/?href=jlc-SMT" xr:uid="{55F12115-D600-4F89-8D79-8B6718F74C07}"/>
-    <hyperlink ref="D23" r:id="rId4" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1003TCE_C25741.html/?href=jlc-SMT" xr:uid="{4B797137-489D-4D76-A5C3-5FBDA34236F1}"/>
-    <hyperlink ref="D24" r:id="rId5" display="https://lcsc.com/product-detail/High-Precision-Low-TCR-SMD-Resistors_Uniroyal-Elec-TC0225B3002TCE_C105614.html/?href=jlc-SMT" xr:uid="{AD9DA961-73CE-4E66-A414-615D92A80A57}"/>
-    <hyperlink ref="D15" r:id="rId6" display="https://lcsc.com/product-detail/Tactile-Switches_XKB-Enterprise-TS-1187A-C-E-A_C318887.html/?href=jlc-SMT" xr:uid="{8EFF8930-7CD6-4579-BC97-98D513B36AF0}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_4-7nF-472-10-50V_C1744.html/?href=jlc-SMT" xr:uid="{E2F9F6DD-152F-4C08-A698-EED272E77EBC}"/>
+    <hyperlink ref="D19" r:id="rId2" display="https://lcsc.com/product-detail/Motor-Drivers_TI_DRV8833PWP_DRV8833PWP_C50506.html/?href=jlc-SMT" xr:uid="{55F12115-D600-4F89-8D79-8B6718F74C07}"/>
+    <hyperlink ref="D24" r:id="rId3" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1003TCE_C25741.html/?href=jlc-SMT" xr:uid="{4B797137-489D-4D76-A5C3-5FBDA34236F1}"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://lcsc.com/product-detail/High-Precision-Low-TCR-SMD-Resistors_Uniroyal-Elec-TC0225B3002TCE_C105614.html/?href=jlc-SMT" xr:uid="{AD9DA961-73CE-4E66-A414-615D92A80A57}"/>
+    <hyperlink ref="D16" r:id="rId5" display="https://lcsc.com/product-detail/Tactile-Switches_XKB-Enterprise-TS-1187A-C-E-A_C318887.html/?href=jlc-SMT" xr:uid="{8EFF8930-7CD6-4579-BC97-98D513B36AF0}"/>
+    <hyperlink ref="D26" r:id="rId6" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1200TCE_C25079.html/?href=jlc-SMT" xr:uid="{75BECDD6-FD7F-4730-97D9-8B198510AF11}"/>
+    <hyperlink ref="D7" r:id="rId7" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2uF-225-20-50V_C49217.html/?href=jlc-SMT" xr:uid="{637D64B5-437C-49D1-A875-1234840770D2}"/>
+    <hyperlink ref="D10" r:id="rId8" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A475KAQNNNE_4-7uF-475-10-25V_C1779.html/?href=jlc-SMT" xr:uid="{01E53552-B09C-4FDE-A512-4F1FD38FE47A}"/>
+    <hyperlink ref="D30" r:id="rId9" display="https://lcsc.com/product-detail/RS-485-RS-422_MAXIM_MAX485CSA-T_MAX485CSA-T_C9945.html/?href=jlc-SMT" xr:uid="{A3A126BE-4593-4CC5-B732-FCBBAA790A43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>